--- a/AAII_Financials/Quarterly/KAOOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KAOOY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
   <si>
     <t>KAOOY</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,152 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
+      <c r="F7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="I7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="J7" s="2">
+        <v>44104</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>2507600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3052300</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2839400</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2791000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2500400</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2716300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>7247900</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>1679200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1992600</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1864500</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1781700</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1590700</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1532600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4172700</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>828300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1059700</v>
+      </c>
+      <c r="F10" s="3">
+        <v>974800</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1009300</v>
+      </c>
+      <c r="H10" s="3">
+        <v>909700</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1183700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3075200</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,37 +822,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>113500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>111300</v>
+      </c>
+      <c r="F12" s="3">
+        <v>105800</v>
+      </c>
+      <c r="G12" s="3">
+        <v>107400</v>
+      </c>
+      <c r="H12" s="3">
+        <v>112300</v>
+      </c>
+      <c r="I12" s="3">
+        <v>108400</v>
+      </c>
+      <c r="J12" s="3">
+        <v>313400</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,66 +884,75 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E15" s="3">
+        <v>49300</v>
+      </c>
+      <c r="F15" s="3">
+        <v>48800</v>
+      </c>
+      <c r="G15" s="3">
+        <v>47700</v>
+      </c>
+      <c r="H15" s="3">
+        <v>45300</v>
+      </c>
+      <c r="I15" s="3">
+        <v>49600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>146600</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,66 +961,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>2455100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2813300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2671700</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2569600</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2334900</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2316100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>6382300</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>52500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>239000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>167700</v>
+      </c>
+      <c r="G18" s="3">
+        <v>221400</v>
+      </c>
+      <c r="H18" s="3">
+        <v>165500</v>
+      </c>
+      <c r="I18" s="3">
+        <v>400200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>865600</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,54 +1039,58 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>9900</v>
+      </c>
+      <c r="G20" s="3">
+        <v>29600</v>
+      </c>
+      <c r="H20" s="3">
+        <v>19500</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-6600</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>220200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>386600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>342300</v>
+      </c>
+      <c r="G21" s="3">
+        <v>412700</v>
+      </c>
+      <c r="H21" s="3">
+        <v>340700</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1063,95 +1101,107 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>60800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>221700</v>
+      </c>
+      <c r="F23" s="3">
+        <v>177500</v>
+      </c>
+      <c r="G23" s="3">
+        <v>251000</v>
+      </c>
+      <c r="H23" s="3">
+        <v>185000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>395300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>859100</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>17900</v>
+      </c>
+      <c r="F24" s="3">
+        <v>35400</v>
+      </c>
+      <c r="G24" s="3">
+        <v>99700</v>
+      </c>
+      <c r="H24" s="3">
+        <v>49600</v>
+      </c>
+      <c r="I24" s="3">
+        <v>101700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>229200</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,66 +1229,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>203800</v>
+      </c>
+      <c r="F26" s="3">
+        <v>142100</v>
+      </c>
+      <c r="G26" s="3">
+        <v>151300</v>
+      </c>
+      <c r="H26" s="3">
+        <v>135300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>293600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>629800</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>199800</v>
+      </c>
+      <c r="F27" s="3">
+        <v>140100</v>
+      </c>
+      <c r="G27" s="3">
+        <v>148800</v>
+      </c>
+      <c r="H27" s="3">
+        <v>131500</v>
+      </c>
+      <c r="I27" s="3">
+        <v>289800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>619600</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,37 +1325,43 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1389,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,66 +1421,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>17300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="I32" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>6600</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>199800</v>
+      </c>
+      <c r="F33" s="3">
+        <v>140100</v>
+      </c>
+      <c r="G33" s="3">
+        <v>148800</v>
+      </c>
+      <c r="H33" s="3">
+        <v>131500</v>
+      </c>
+      <c r="I33" s="3">
+        <v>289800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>619600</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,71 +1517,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>199800</v>
+      </c>
+      <c r="F35" s="3">
+        <v>140100</v>
+      </c>
+      <c r="G35" s="3">
+        <v>148800</v>
+      </c>
+      <c r="H35" s="3">
+        <v>131500</v>
+      </c>
+      <c r="I35" s="3">
+        <v>289800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>619600</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
+      <c r="F38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="H38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="I38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="J38" s="2">
+        <v>44104</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,8 +1602,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,25 +1616,26 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+      <c r="D41" s="3">
+        <v>1562900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1934100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1730200</v>
+      </c>
+      <c r="G41" s="3">
+        <v>2022600</v>
+      </c>
+      <c r="H41" s="3">
+        <v>2032700</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1558,25 +1646,28 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+      <c r="D42" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>26000</v>
+      </c>
+      <c r="F42" s="3">
+        <v>42300</v>
+      </c>
+      <c r="G42" s="3">
+        <v>56600</v>
+      </c>
+      <c r="H42" s="3">
+        <v>47000</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1587,25 +1678,28 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>1558300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1692700</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1645300</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1674600</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1543400</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1616,25 +1710,28 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+      <c r="D44" s="3">
+        <v>2085100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2007100</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2164500</v>
+      </c>
+      <c r="G44" s="3">
+        <v>2048600</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1860200</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1645,25 +1742,28 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+      <c r="D45" s="3">
+        <v>201700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>160000</v>
+      </c>
+      <c r="F45" s="3">
+        <v>167200</v>
+      </c>
+      <c r="G45" s="3">
+        <v>159000</v>
+      </c>
+      <c r="H45" s="3">
+        <v>161200</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1674,25 +1774,28 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+      <c r="D46" s="3">
+        <v>5430400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>5820000</v>
+      </c>
+      <c r="F46" s="3">
+        <v>5749500</v>
+      </c>
+      <c r="G46" s="3">
+        <v>5961400</v>
+      </c>
+      <c r="H46" s="3">
+        <v>5644600</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1703,25 +1806,28 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>252400</v>
+      </c>
+      <c r="E47" s="3">
+        <v>262300</v>
+      </c>
+      <c r="F47" s="3">
+        <v>259600</v>
+      </c>
+      <c r="G47" s="3">
+        <v>239000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>238100</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1732,25 +1838,28 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+      <c r="D48" s="3">
+        <v>4119600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4167000</v>
+      </c>
+      <c r="F48" s="3">
+        <v>4250600</v>
+      </c>
+      <c r="G48" s="3">
+        <v>4290500</v>
+      </c>
+      <c r="H48" s="3">
+        <v>4139100</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1761,25 +1870,28 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+      <c r="D49" s="3">
+        <v>1822900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1817200</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1863300</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1825700</v>
+      </c>
+      <c r="H49" s="3">
+        <v>1756900</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1790,8 +1902,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,8 +1934,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,25 +1966,28 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>381900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>380400</v>
+      </c>
+      <c r="F52" s="3">
+        <v>378400</v>
+      </c>
+      <c r="G52" s="3">
+        <v>381500</v>
+      </c>
+      <c r="H52" s="3">
+        <v>371200</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -1877,8 +1998,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,25 +2030,28 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+      <c r="D54" s="3">
+        <v>12007200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>12447000</v>
+      </c>
+      <c r="F54" s="3">
+        <v>12501500</v>
+      </c>
+      <c r="G54" s="3">
+        <v>12698100</v>
+      </c>
+      <c r="H54" s="3">
+        <v>12149800</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -1935,8 +2062,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,8 +2078,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,25 +2092,26 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+      <c r="D57" s="3">
+        <v>1693900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1757600</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1733000</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1718600</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1626800</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -1990,25 +2122,28 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>320700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>613600</v>
+      </c>
+      <c r="F58" s="3">
+        <v>645600</v>
+      </c>
+      <c r="G58" s="3">
+        <v>663100</v>
+      </c>
+      <c r="H58" s="3">
+        <v>477500</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2019,25 +2154,28 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+      <c r="D59" s="3">
+        <v>951800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1137400</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1211600</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1139000</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1010500</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2048,25 +2186,28 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+      <c r="D60" s="3">
+        <v>2966500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3508600</v>
+      </c>
+      <c r="F60" s="3">
+        <v>3590100</v>
+      </c>
+      <c r="G60" s="3">
+        <v>3520700</v>
+      </c>
+      <c r="H60" s="3">
+        <v>3114800</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2077,25 +2218,28 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1519500</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>1281800</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>1225600</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>1269900</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>1438100</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2106,25 +2250,28 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="D62" s="3">
+        <v>472800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>479900</v>
+      </c>
+      <c r="F62" s="3">
+        <v>410000</v>
+      </c>
+      <c r="G62" s="3">
+        <v>411000</v>
+      </c>
+      <c r="H62" s="3">
+        <v>401700</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2135,8 +2282,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,8 +2314,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,8 +2346,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,25 +2378,28 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+      <c r="D66" s="3">
+        <v>5146800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5438400</v>
+      </c>
+      <c r="F66" s="3">
+        <v>5403100</v>
+      </c>
+      <c r="G66" s="3">
+        <v>5374000</v>
+      </c>
+      <c r="H66" s="3">
+        <v>5100700</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2251,8 +2410,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,8 +2426,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,8 +2456,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,37 +2488,43 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>3</v>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,25 +2552,28 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>5124900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>5338500</v>
+      </c>
+      <c r="F72" s="3">
+        <v>5201800</v>
+      </c>
+      <c r="G72" s="3">
+        <v>5674000</v>
+      </c>
+      <c r="H72" s="3">
+        <v>5524200</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2409,8 +2584,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,8 +2616,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,8 +2648,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,25 +2680,28 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>6860400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>7008600</v>
+      </c>
+      <c r="F76" s="3">
+        <v>7098400</v>
+      </c>
+      <c r="G76" s="3">
+        <v>7324100</v>
+      </c>
+      <c r="H76" s="3">
+        <v>7049100</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2525,8 +2712,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,71 +2744,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
+      <c r="F80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="H80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="I80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="J80" s="2">
+        <v>44104</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>199800</v>
+      </c>
+      <c r="F81" s="3">
+        <v>140100</v>
+      </c>
+      <c r="G81" s="3">
+        <v>148800</v>
+      </c>
+      <c r="H81" s="3">
+        <v>131500</v>
+      </c>
+      <c r="I81" s="3">
+        <v>289800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>619600</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,25 +2829,26 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>159400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>164900</v>
+      </c>
+      <c r="F83" s="3">
+        <v>164700</v>
+      </c>
+      <c r="G83" s="3">
+        <v>161700</v>
+      </c>
+      <c r="H83" s="3">
+        <v>155700</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2659,8 +2859,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,8 +2891,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,8 +2923,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,8 +2955,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,8 +2987,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,25 +3019,28 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>416400</v>
+      </c>
+      <c r="F89" s="3">
+        <v>327400</v>
+      </c>
+      <c r="G89" s="3">
+        <v>272900</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-72900</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2833,8 +3051,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,37 +3067,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-15515000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-17919000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-17605000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-25593000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,8 +3129,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,25 +3161,28 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-116700</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-134700</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-175700</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-113100</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -2962,8 +3193,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,25 +3209,26 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-242800</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-5600</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-245200</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-5100</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-241100</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3004,8 +3239,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,8 +3271,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,8 +3303,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,25 +3335,28 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>-266500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-501200</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-204000</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-280800</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3120,25 +3367,28 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-77400</v>
+      </c>
+      <c r="F101" s="3">
+        <v>16100</v>
+      </c>
+      <c r="G101" s="3">
+        <v>96600</v>
+      </c>
+      <c r="H101" s="3">
+        <v>76400</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3149,25 +3399,28 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-371200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>203800</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-292400</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-390300</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3176,6 +3429,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KAOOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KAOOY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
   <si>
     <t>KAOOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,152 +665,163 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
-        <v>44196</v>
-      </c>
       <c r="J7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2507600</v>
+        <v>2684300</v>
       </c>
       <c r="E8" s="3">
-        <v>3052300</v>
+        <v>2389300</v>
       </c>
       <c r="F8" s="3">
-        <v>2839400</v>
+        <v>2908400</v>
       </c>
       <c r="G8" s="3">
-        <v>2791000</v>
+        <v>2705500</v>
       </c>
       <c r="H8" s="3">
-        <v>2500400</v>
+        <v>2659400</v>
       </c>
       <c r="I8" s="3">
-        <v>2716300</v>
+        <v>2382500</v>
       </c>
       <c r="J8" s="3">
+        <v>2732900</v>
+      </c>
+      <c r="K8" s="3">
         <v>7247900</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1679200</v>
+        <v>1694800</v>
       </c>
       <c r="E9" s="3">
-        <v>1992600</v>
+        <v>1600100</v>
       </c>
       <c r="F9" s="3">
-        <v>1864500</v>
+        <v>1898700</v>
       </c>
       <c r="G9" s="3">
-        <v>1781700</v>
+        <v>1776600</v>
       </c>
       <c r="H9" s="3">
-        <v>1590700</v>
+        <v>1697700</v>
       </c>
       <c r="I9" s="3">
-        <v>1532600</v>
+        <v>1515700</v>
       </c>
       <c r="J9" s="3">
+        <v>1658400</v>
+      </c>
+      <c r="K9" s="3">
         <v>4172700</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>828300</v>
+        <v>989600</v>
       </c>
       <c r="E10" s="3">
-        <v>1059700</v>
+        <v>789300</v>
       </c>
       <c r="F10" s="3">
-        <v>974800</v>
+        <v>1009700</v>
       </c>
       <c r="G10" s="3">
-        <v>1009300</v>
+        <v>928900</v>
       </c>
       <c r="H10" s="3">
-        <v>909700</v>
+        <v>961700</v>
       </c>
       <c r="I10" s="3">
-        <v>1183700</v>
+        <v>866800</v>
       </c>
       <c r="J10" s="3">
+        <v>1074500</v>
+      </c>
+      <c r="K10" s="3">
         <v>3075200</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -823,40 +834,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>113500</v>
+        <v>105700</v>
       </c>
       <c r="E12" s="3">
-        <v>111300</v>
+        <v>108100</v>
       </c>
       <c r="F12" s="3">
-        <v>105800</v>
+        <v>106100</v>
       </c>
       <c r="G12" s="3">
-        <v>107400</v>
+        <v>100800</v>
       </c>
       <c r="H12" s="3">
-        <v>112300</v>
+        <v>102400</v>
       </c>
       <c r="I12" s="3">
-        <v>108400</v>
+        <v>107000</v>
       </c>
       <c r="J12" s="3">
+        <v>104600</v>
+      </c>
+      <c r="K12" s="3">
         <v>313400</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -887,72 +902,81 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+        <v>54500</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>47800</v>
+        <v>46700</v>
       </c>
       <c r="E15" s="3">
-        <v>49300</v>
+        <v>45600</v>
       </c>
       <c r="F15" s="3">
-        <v>48800</v>
+        <v>47000</v>
       </c>
       <c r="G15" s="3">
-        <v>47700</v>
+        <v>46500</v>
       </c>
       <c r="H15" s="3">
-        <v>45300</v>
+        <v>45400</v>
       </c>
       <c r="I15" s="3">
-        <v>49600</v>
+        <v>43200</v>
       </c>
       <c r="J15" s="3">
+        <v>41000</v>
+      </c>
+      <c r="K15" s="3">
         <v>146600</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -962,72 +986,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2455100</v>
+        <v>2556500</v>
       </c>
       <c r="E17" s="3">
-        <v>2813300</v>
+        <v>2339300</v>
       </c>
       <c r="F17" s="3">
-        <v>2671700</v>
+        <v>2680600</v>
       </c>
       <c r="G17" s="3">
-        <v>2569600</v>
+        <v>2545700</v>
       </c>
       <c r="H17" s="3">
-        <v>2334900</v>
+        <v>2448400</v>
       </c>
       <c r="I17" s="3">
-        <v>2316100</v>
+        <v>2224800</v>
       </c>
       <c r="J17" s="3">
+        <v>2495800</v>
+      </c>
+      <c r="K17" s="3">
         <v>6382300</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>52500</v>
+        <v>127900</v>
       </c>
       <c r="E18" s="3">
-        <v>239000</v>
+        <v>50100</v>
       </c>
       <c r="F18" s="3">
-        <v>167700</v>
+        <v>227800</v>
       </c>
       <c r="G18" s="3">
-        <v>221400</v>
+        <v>159800</v>
       </c>
       <c r="H18" s="3">
-        <v>165500</v>
+        <v>211000</v>
       </c>
       <c r="I18" s="3">
-        <v>400200</v>
+        <v>157700</v>
       </c>
       <c r="J18" s="3">
+        <v>237100</v>
+      </c>
+      <c r="K18" s="3">
         <v>865600</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1040,63 +1071,67 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>8300</v>
+        <v>10900</v>
       </c>
       <c r="E20" s="3">
-        <v>-17300</v>
+        <v>7900</v>
       </c>
       <c r="F20" s="3">
-        <v>9900</v>
+        <v>-16500</v>
       </c>
       <c r="G20" s="3">
-        <v>29600</v>
+        <v>9400</v>
       </c>
       <c r="H20" s="3">
-        <v>19500</v>
+        <v>28200</v>
       </c>
       <c r="I20" s="3">
-        <v>-4900</v>
+        <v>18600</v>
       </c>
       <c r="J20" s="3">
+        <v>13600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-6600</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>220200</v>
+        <v>293100</v>
       </c>
       <c r="E21" s="3">
-        <v>386600</v>
+        <v>209900</v>
       </c>
       <c r="F21" s="3">
-        <v>342300</v>
+        <v>368400</v>
       </c>
       <c r="G21" s="3">
-        <v>412700</v>
+        <v>326100</v>
       </c>
       <c r="H21" s="3">
-        <v>340700</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>393200</v>
+      </c>
+      <c r="I21" s="3">
+        <v>324600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>399600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1104,8 +1139,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1130,78 +1168,87 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>60800</v>
+        <v>138800</v>
       </c>
       <c r="E23" s="3">
-        <v>221700</v>
+        <v>58000</v>
       </c>
       <c r="F23" s="3">
-        <v>177500</v>
+        <v>211300</v>
       </c>
       <c r="G23" s="3">
-        <v>251000</v>
+        <v>169200</v>
       </c>
       <c r="H23" s="3">
-        <v>185000</v>
+        <v>239200</v>
       </c>
       <c r="I23" s="3">
-        <v>395300</v>
+        <v>176200</v>
       </c>
       <c r="J23" s="3">
+        <v>250700</v>
+      </c>
+      <c r="K23" s="3">
         <v>859100</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>22100</v>
+        <v>53900</v>
       </c>
       <c r="E24" s="3">
-        <v>17900</v>
+        <v>21100</v>
       </c>
       <c r="F24" s="3">
-        <v>35400</v>
+        <v>17000</v>
       </c>
       <c r="G24" s="3">
-        <v>99700</v>
+        <v>33700</v>
       </c>
       <c r="H24" s="3">
-        <v>49600</v>
+        <v>95000</v>
       </c>
       <c r="I24" s="3">
-        <v>101700</v>
+        <v>47300</v>
       </c>
       <c r="J24" s="3">
+        <v>58000</v>
+      </c>
+      <c r="K24" s="3">
         <v>229200</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1232,72 +1279,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>38700</v>
+        <v>84900</v>
       </c>
       <c r="E26" s="3">
-        <v>203800</v>
+        <v>36900</v>
       </c>
       <c r="F26" s="3">
-        <v>142100</v>
+        <v>194200</v>
       </c>
       <c r="G26" s="3">
-        <v>151300</v>
+        <v>135400</v>
       </c>
       <c r="H26" s="3">
-        <v>135300</v>
+        <v>144200</v>
       </c>
       <c r="I26" s="3">
-        <v>293600</v>
+        <v>128900</v>
       </c>
       <c r="J26" s="3">
+        <v>192700</v>
+      </c>
+      <c r="K26" s="3">
         <v>629800</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>34700</v>
+        <v>81100</v>
       </c>
       <c r="E27" s="3">
-        <v>199800</v>
+        <v>33100</v>
       </c>
       <c r="F27" s="3">
-        <v>140100</v>
+        <v>190400</v>
       </c>
       <c r="G27" s="3">
-        <v>148800</v>
+        <v>133500</v>
       </c>
       <c r="H27" s="3">
-        <v>131500</v>
+        <v>141800</v>
       </c>
       <c r="I27" s="3">
-        <v>289800</v>
+        <v>125300</v>
       </c>
       <c r="J27" s="3">
+        <v>189400</v>
+      </c>
+      <c r="K27" s="3">
         <v>619600</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1328,8 +1384,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1354,14 +1413,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>3</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1392,8 +1454,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1424,72 +1489,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8300</v>
+        <v>-10900</v>
       </c>
       <c r="E32" s="3">
-        <v>17300</v>
+        <v>-7900</v>
       </c>
       <c r="F32" s="3">
-        <v>-9900</v>
+        <v>16500</v>
       </c>
       <c r="G32" s="3">
-        <v>-29600</v>
+        <v>-9400</v>
       </c>
       <c r="H32" s="3">
-        <v>-19500</v>
+        <v>-28200</v>
       </c>
       <c r="I32" s="3">
-        <v>4900</v>
+        <v>-18600</v>
       </c>
       <c r="J32" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="K32" s="3">
         <v>6600</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>34700</v>
+        <v>81100</v>
       </c>
       <c r="E33" s="3">
-        <v>199800</v>
+        <v>33100</v>
       </c>
       <c r="F33" s="3">
-        <v>140100</v>
+        <v>190400</v>
       </c>
       <c r="G33" s="3">
-        <v>148800</v>
+        <v>133500</v>
       </c>
       <c r="H33" s="3">
-        <v>131500</v>
+        <v>141800</v>
       </c>
       <c r="I33" s="3">
-        <v>289800</v>
+        <v>125300</v>
       </c>
       <c r="J33" s="3">
+        <v>189400</v>
+      </c>
+      <c r="K33" s="3">
         <v>619600</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1520,77 +1594,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>34700</v>
+        <v>81100</v>
       </c>
       <c r="E35" s="3">
-        <v>199800</v>
+        <v>33100</v>
       </c>
       <c r="F35" s="3">
-        <v>140100</v>
+        <v>190400</v>
       </c>
       <c r="G35" s="3">
-        <v>148800</v>
+        <v>133500</v>
       </c>
       <c r="H35" s="3">
-        <v>131500</v>
+        <v>141800</v>
       </c>
       <c r="I35" s="3">
-        <v>289800</v>
+        <v>125300</v>
       </c>
       <c r="J35" s="3">
+        <v>189400</v>
+      </c>
+      <c r="K35" s="3">
         <v>619600</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
-        <v>44196</v>
-      </c>
       <c r="J38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1603,8 +1686,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1617,31 +1701,32 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1562900</v>
+        <v>1811300</v>
       </c>
       <c r="E41" s="3">
-        <v>1934100</v>
+        <v>1406700</v>
       </c>
       <c r="F41" s="3">
-        <v>1730200</v>
+        <v>1726100</v>
       </c>
       <c r="G41" s="3">
-        <v>2022600</v>
+        <v>1531900</v>
       </c>
       <c r="H41" s="3">
-        <v>2032700</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+        <v>1776100</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1806300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2308800</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1649,31 +1734,34 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>22400</v>
+        <v>117900</v>
       </c>
       <c r="E42" s="3">
-        <v>26000</v>
+        <v>103800</v>
       </c>
       <c r="F42" s="3">
-        <v>42300</v>
+        <v>141600</v>
       </c>
       <c r="G42" s="3">
-        <v>56600</v>
+        <v>157000</v>
       </c>
       <c r="H42" s="3">
-        <v>47000</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+        <v>205100</v>
+      </c>
+      <c r="I42" s="3">
+        <v>175300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>41900</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -1681,31 +1769,34 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1558300</v>
+        <v>1531900</v>
       </c>
       <c r="E43" s="3">
-        <v>1692700</v>
+        <v>1484800</v>
       </c>
       <c r="F43" s="3">
-        <v>1645300</v>
+        <v>1612900</v>
       </c>
       <c r="G43" s="3">
-        <v>1674600</v>
+        <v>1567700</v>
       </c>
       <c r="H43" s="3">
-        <v>1543400</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+        <v>1595600</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1470600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1502600</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1713,31 +1804,34 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2085100</v>
+        <v>1977300</v>
       </c>
       <c r="E44" s="3">
-        <v>2007100</v>
+        <v>1986700</v>
       </c>
       <c r="F44" s="3">
-        <v>2164500</v>
+        <v>1912500</v>
       </c>
       <c r="G44" s="3">
-        <v>2048600</v>
+        <v>2062500</v>
       </c>
       <c r="H44" s="3">
-        <v>1860200</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
+        <v>1952000</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1772500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1566800</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
@@ -1745,31 +1839,34 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>201700</v>
+        <v>157600</v>
       </c>
       <c r="E45" s="3">
-        <v>160000</v>
+        <v>192200</v>
       </c>
       <c r="F45" s="3">
-        <v>167200</v>
+        <v>152500</v>
       </c>
       <c r="G45" s="3">
-        <v>159000</v>
+        <v>159400</v>
       </c>
       <c r="H45" s="3">
-        <v>161200</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+        <v>151500</v>
+      </c>
+      <c r="I45" s="3">
+        <v>153600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>143200</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1777,31 +1874,34 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5430400</v>
+        <v>5596100</v>
       </c>
       <c r="E46" s="3">
-        <v>5820000</v>
+        <v>5174300</v>
       </c>
       <c r="F46" s="3">
-        <v>5749500</v>
+        <v>5545500</v>
       </c>
       <c r="G46" s="3">
-        <v>5961400</v>
+        <v>5478400</v>
       </c>
       <c r="H46" s="3">
-        <v>5644600</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+        <v>5680300</v>
+      </c>
+      <c r="I46" s="3">
+        <v>5378400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>5563300</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1809,31 +1909,34 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>252400</v>
+        <v>255700</v>
       </c>
       <c r="E47" s="3">
-        <v>262300</v>
+        <v>240500</v>
       </c>
       <c r="F47" s="3">
-        <v>259600</v>
+        <v>250000</v>
       </c>
       <c r="G47" s="3">
-        <v>239000</v>
+        <v>247300</v>
       </c>
       <c r="H47" s="3">
-        <v>238100</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+        <v>227700</v>
+      </c>
+      <c r="I47" s="3">
+        <v>226900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>231100</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -1841,31 +1944,34 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4119600</v>
+        <v>3941600</v>
       </c>
       <c r="E48" s="3">
-        <v>4167000</v>
+        <v>3925300</v>
       </c>
       <c r="F48" s="3">
-        <v>4250600</v>
+        <v>3970500</v>
       </c>
       <c r="G48" s="3">
-        <v>4290500</v>
+        <v>4050200</v>
       </c>
       <c r="H48" s="3">
-        <v>4139100</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+        <v>4088200</v>
+      </c>
+      <c r="I48" s="3">
+        <v>3943900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>3934200</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -1873,31 +1979,34 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1822900</v>
+        <v>1798400</v>
       </c>
       <c r="E49" s="3">
-        <v>1817200</v>
+        <v>1737000</v>
       </c>
       <c r="F49" s="3">
-        <v>1863300</v>
+        <v>1731500</v>
       </c>
       <c r="G49" s="3">
-        <v>1825700</v>
+        <v>1775400</v>
       </c>
       <c r="H49" s="3">
-        <v>1756900</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+        <v>1739600</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1674000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1622200</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -1905,8 +2014,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1937,8 +2049,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1969,31 +2084,34 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>381900</v>
+        <v>383500</v>
       </c>
       <c r="E52" s="3">
-        <v>380400</v>
+        <v>363900</v>
       </c>
       <c r="F52" s="3">
-        <v>378400</v>
+        <v>362500</v>
       </c>
       <c r="G52" s="3">
-        <v>381500</v>
+        <v>360600</v>
       </c>
       <c r="H52" s="3">
-        <v>371200</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+        <v>363500</v>
+      </c>
+      <c r="I52" s="3">
+        <v>353700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>355700</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2001,8 +2119,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2033,31 +2154,34 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12007200</v>
+        <v>11975300</v>
       </c>
       <c r="E54" s="3">
-        <v>12447000</v>
+        <v>11441000</v>
       </c>
       <c r="F54" s="3">
-        <v>12501500</v>
+        <v>11860000</v>
       </c>
       <c r="G54" s="3">
-        <v>12698100</v>
+        <v>11912000</v>
       </c>
       <c r="H54" s="3">
-        <v>12149800</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>12099300</v>
+      </c>
+      <c r="I54" s="3">
+        <v>11576900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>11706500</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2065,8 +2189,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2079,8 +2206,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2093,31 +2221,32 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1693900</v>
+        <v>1617100</v>
       </c>
       <c r="E57" s="3">
-        <v>1757600</v>
+        <v>1614000</v>
       </c>
       <c r="F57" s="3">
-        <v>1733000</v>
+        <v>1674700</v>
       </c>
       <c r="G57" s="3">
-        <v>1718600</v>
+        <v>1651200</v>
       </c>
       <c r="H57" s="3">
-        <v>1626800</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+        <v>1637500</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1550100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1573800</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2125,31 +2254,34 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>320700</v>
+        <v>204800</v>
       </c>
       <c r="E58" s="3">
-        <v>613600</v>
+        <v>305600</v>
       </c>
       <c r="F58" s="3">
-        <v>645600</v>
+        <v>584700</v>
       </c>
       <c r="G58" s="3">
-        <v>663100</v>
+        <v>615100</v>
       </c>
       <c r="H58" s="3">
-        <v>477500</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+        <v>631800</v>
+      </c>
+      <c r="I58" s="3">
+        <v>455000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>179200</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2157,31 +2289,34 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>951800</v>
+        <v>1002800</v>
       </c>
       <c r="E59" s="3">
-        <v>1137400</v>
+        <v>906900</v>
       </c>
       <c r="F59" s="3">
-        <v>1211600</v>
+        <v>1083700</v>
       </c>
       <c r="G59" s="3">
-        <v>1139000</v>
+        <v>1154500</v>
       </c>
       <c r="H59" s="3">
-        <v>1010500</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+        <v>1085300</v>
+      </c>
+      <c r="I59" s="3">
+        <v>962800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1145400</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2189,31 +2324,34 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2966500</v>
+        <v>2824800</v>
       </c>
       <c r="E60" s="3">
-        <v>3508600</v>
+        <v>2826600</v>
       </c>
       <c r="F60" s="3">
-        <v>3590100</v>
+        <v>3343100</v>
       </c>
       <c r="G60" s="3">
-        <v>3520700</v>
+        <v>3420800</v>
       </c>
       <c r="H60" s="3">
-        <v>3114800</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+        <v>3354600</v>
+      </c>
+      <c r="I60" s="3">
+        <v>2967900</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2898400</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2221,31 +2359,34 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1519500</v>
+        <v>1619700</v>
       </c>
       <c r="E61" s="3">
-        <v>1281800</v>
+        <v>1447900</v>
       </c>
       <c r="F61" s="3">
-        <v>1225600</v>
+        <v>1221300</v>
       </c>
       <c r="G61" s="3">
-        <v>1269900</v>
+        <v>1167800</v>
       </c>
       <c r="H61" s="3">
-        <v>1438100</v>
+        <v>1210100</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>1370300</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>1666600</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2253,31 +2394,34 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>472800</v>
+        <v>455500</v>
       </c>
       <c r="E62" s="3">
-        <v>479900</v>
+        <v>450500</v>
       </c>
       <c r="F62" s="3">
-        <v>410000</v>
+        <v>457300</v>
       </c>
       <c r="G62" s="3">
-        <v>411000</v>
+        <v>390700</v>
       </c>
       <c r="H62" s="3">
-        <v>401700</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+        <v>391600</v>
+      </c>
+      <c r="I62" s="3">
+        <v>382800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>382200</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2285,8 +2429,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2317,8 +2464,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2349,8 +2499,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2381,31 +2534,34 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5146800</v>
+        <v>5093200</v>
       </c>
       <c r="E66" s="3">
-        <v>5438400</v>
+        <v>4904100</v>
       </c>
       <c r="F66" s="3">
-        <v>5403100</v>
+        <v>5182000</v>
       </c>
       <c r="G66" s="3">
-        <v>5374000</v>
+        <v>5148300</v>
       </c>
       <c r="H66" s="3">
-        <v>5100700</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>5120600</v>
+      </c>
+      <c r="I66" s="3">
+        <v>4860200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>5076000</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2413,8 +2569,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2427,8 +2586,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2459,8 +2619,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2491,8 +2654,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2517,14 +2683,17 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3" t="s">
-        <v>3</v>
+      <c r="K70" s="3">
+        <v>0</v>
       </c>
       <c r="L70" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2555,31 +2724,34 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5124900</v>
+        <v>4964600</v>
       </c>
       <c r="E72" s="3">
-        <v>5338500</v>
+        <v>4883600</v>
       </c>
       <c r="F72" s="3">
-        <v>5201800</v>
+        <v>5086800</v>
       </c>
       <c r="G72" s="3">
-        <v>5674000</v>
+        <v>4956900</v>
       </c>
       <c r="H72" s="3">
-        <v>5524200</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+        <v>5406400</v>
+      </c>
+      <c r="I72" s="3">
+        <v>5263700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>5371900</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2587,8 +2759,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2619,8 +2794,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2651,8 +2829,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2683,31 +2864,34 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6860400</v>
+        <v>6882100</v>
       </c>
       <c r="E76" s="3">
-        <v>7008600</v>
+        <v>6536900</v>
       </c>
       <c r="F76" s="3">
-        <v>7098400</v>
+        <v>6678100</v>
       </c>
       <c r="G76" s="3">
-        <v>7324100</v>
+        <v>6763700</v>
       </c>
       <c r="H76" s="3">
-        <v>7049100</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+        <v>6978700</v>
+      </c>
+      <c r="I76" s="3">
+        <v>6716700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>6630500</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2715,8 +2899,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2747,77 +2934,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
-        <v>44196</v>
-      </c>
       <c r="J80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>34700</v>
+        <v>81100</v>
       </c>
       <c r="E81" s="3">
-        <v>199800</v>
+        <v>33100</v>
       </c>
       <c r="F81" s="3">
-        <v>140100</v>
+        <v>190400</v>
       </c>
       <c r="G81" s="3">
-        <v>148800</v>
+        <v>133500</v>
       </c>
       <c r="H81" s="3">
-        <v>131500</v>
+        <v>141800</v>
       </c>
       <c r="I81" s="3">
-        <v>289800</v>
+        <v>125300</v>
       </c>
       <c r="J81" s="3">
+        <v>189400</v>
+      </c>
+      <c r="K81" s="3">
         <v>619600</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2830,31 +3026,32 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>159400</v>
+        <v>154400</v>
       </c>
       <c r="E83" s="3">
-        <v>164900</v>
+        <v>151900</v>
       </c>
       <c r="F83" s="3">
-        <v>164700</v>
+        <v>157100</v>
       </c>
       <c r="G83" s="3">
-        <v>161700</v>
+        <v>157000</v>
       </c>
       <c r="H83" s="3">
-        <v>155700</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+        <v>154000</v>
+      </c>
+      <c r="I83" s="3">
+        <v>148400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>148900</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -2862,8 +3059,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2894,8 +3094,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2926,8 +3129,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2958,8 +3164,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2990,8 +3199,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3022,31 +3234,34 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-20200</v>
+        <v>448000</v>
       </c>
       <c r="E89" s="3">
-        <v>416400</v>
+        <v>-19200</v>
       </c>
       <c r="F89" s="3">
-        <v>327400</v>
+        <v>396700</v>
       </c>
       <c r="G89" s="3">
-        <v>272900</v>
+        <v>312000</v>
       </c>
       <c r="H89" s="3">
-        <v>-72900</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>260100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-69500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>372600</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3054,8 +3269,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3068,40 +3286,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17264000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15515000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-17919000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-17605000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-25593000</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-16084000</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+        <v>-17987000</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3132,8 +3354,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3164,31 +3389,34 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-109000</v>
+        <v>-125900</v>
       </c>
       <c r="E94" s="3">
-        <v>-116700</v>
+        <v>-103800</v>
       </c>
       <c r="F94" s="3">
-        <v>-134700</v>
+        <v>-111200</v>
       </c>
       <c r="G94" s="3">
-        <v>-175700</v>
+        <v>-128300</v>
       </c>
       <c r="H94" s="3">
-        <v>-113100</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>-167400</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-107700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-116900</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3196,8 +3424,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3210,31 +3441,32 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-242800</v>
+        <v>-5200</v>
       </c>
       <c r="E96" s="3">
-        <v>-5600</v>
+        <v>-231400</v>
       </c>
       <c r="F96" s="3">
-        <v>-245200</v>
+        <v>-5400</v>
       </c>
       <c r="G96" s="3">
-        <v>-5100</v>
+        <v>-233600</v>
       </c>
       <c r="H96" s="3">
-        <v>-241100</v>
+        <v>-4800</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-229800</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-4900</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3242,8 +3474,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3274,8 +3509,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3306,8 +3544,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3338,31 +3579,34 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-266500</v>
+        <v>17800</v>
       </c>
       <c r="E100" s="3">
-        <v>-18500</v>
+        <v>-253900</v>
       </c>
       <c r="F100" s="3">
-        <v>-501200</v>
+        <v>-17600</v>
       </c>
       <c r="G100" s="3">
-        <v>-204000</v>
+        <v>-477600</v>
       </c>
       <c r="H100" s="3">
-        <v>-280800</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>-194400</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-267500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-40400</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3370,31 +3614,34 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>24500</v>
+        <v>64800</v>
       </c>
       <c r="E101" s="3">
-        <v>-77400</v>
+        <v>23300</v>
       </c>
       <c r="F101" s="3">
-        <v>16100</v>
+        <v>-73800</v>
       </c>
       <c r="G101" s="3">
-        <v>96600</v>
+        <v>15300</v>
       </c>
       <c r="H101" s="3">
-        <v>76400</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+        <v>92100</v>
+      </c>
+      <c r="I101" s="3">
+        <v>72800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>39600</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3402,36 +3649,42 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-371200</v>
+        <v>404600</v>
       </c>
       <c r="E102" s="3">
-        <v>203800</v>
+        <v>-353700</v>
       </c>
       <c r="F102" s="3">
-        <v>-292400</v>
+        <v>194200</v>
       </c>
       <c r="G102" s="3">
-        <v>-10100</v>
+        <v>-278600</v>
       </c>
       <c r="H102" s="3">
-        <v>-390300</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>-9600</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-371900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>254900</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KAOOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KAOOY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,163 +665,175 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2684300</v>
+        <v>2572000</v>
       </c>
       <c r="E8" s="3">
-        <v>2389300</v>
+        <v>2594500</v>
       </c>
       <c r="F8" s="3">
-        <v>2908400</v>
+        <v>2309400</v>
       </c>
       <c r="G8" s="3">
-        <v>2705500</v>
+        <v>2811000</v>
       </c>
       <c r="H8" s="3">
-        <v>2659400</v>
+        <v>2614900</v>
       </c>
       <c r="I8" s="3">
-        <v>2382500</v>
+        <v>2570400</v>
       </c>
       <c r="J8" s="3">
+        <v>2302700</v>
+      </c>
+      <c r="K8" s="3">
         <v>2732900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7247900</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1694800</v>
+        <v>1583000</v>
       </c>
       <c r="E9" s="3">
-        <v>1600100</v>
+        <v>1638000</v>
       </c>
       <c r="F9" s="3">
-        <v>1898700</v>
+        <v>1546500</v>
       </c>
       <c r="G9" s="3">
-        <v>1776600</v>
+        <v>1835100</v>
       </c>
       <c r="H9" s="3">
-        <v>1697700</v>
+        <v>1717100</v>
       </c>
       <c r="I9" s="3">
-        <v>1515700</v>
+        <v>1640900</v>
       </c>
       <c r="J9" s="3">
+        <v>1464900</v>
+      </c>
+      <c r="K9" s="3">
         <v>1658400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4172700</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>989600</v>
+        <v>989000</v>
       </c>
       <c r="E10" s="3">
-        <v>789300</v>
+        <v>956500</v>
       </c>
       <c r="F10" s="3">
-        <v>1009700</v>
+        <v>762900</v>
       </c>
       <c r="G10" s="3">
-        <v>928900</v>
+        <v>975900</v>
       </c>
       <c r="H10" s="3">
-        <v>961700</v>
+        <v>897800</v>
       </c>
       <c r="I10" s="3">
-        <v>866800</v>
+        <v>929500</v>
       </c>
       <c r="J10" s="3">
+        <v>837800</v>
+      </c>
+      <c r="K10" s="3">
         <v>1074500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3075200</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -835,43 +847,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>105700</v>
+        <v>102300</v>
       </c>
       <c r="E12" s="3">
-        <v>108100</v>
+        <v>102200</v>
       </c>
       <c r="F12" s="3">
-        <v>106100</v>
+        <v>104500</v>
       </c>
       <c r="G12" s="3">
-        <v>100800</v>
+        <v>102500</v>
       </c>
       <c r="H12" s="3">
-        <v>102400</v>
+        <v>97500</v>
       </c>
       <c r="I12" s="3">
-        <v>107000</v>
+        <v>98900</v>
       </c>
       <c r="J12" s="3">
+        <v>103400</v>
+      </c>
+      <c r="K12" s="3">
         <v>104600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>313400</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -905,16 +921,19 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>54500</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+        <v>69400</v>
+      </c>
+      <c r="E14" s="3">
+        <v>52700</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -931,52 +950,58 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>46700</v>
+        <v>45000</v>
       </c>
       <c r="E15" s="3">
-        <v>45600</v>
+        <v>45100</v>
       </c>
       <c r="F15" s="3">
-        <v>47000</v>
+        <v>44000</v>
       </c>
       <c r="G15" s="3">
-        <v>46500</v>
+        <v>45400</v>
       </c>
       <c r="H15" s="3">
-        <v>45400</v>
+        <v>44900</v>
       </c>
       <c r="I15" s="3">
-        <v>43200</v>
+        <v>43900</v>
       </c>
       <c r="J15" s="3">
+        <v>41800</v>
+      </c>
+      <c r="K15" s="3">
         <v>41000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>146600</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -987,78 +1012,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2556500</v>
+        <v>2407300</v>
       </c>
       <c r="E17" s="3">
-        <v>2339300</v>
+        <v>2470900</v>
       </c>
       <c r="F17" s="3">
-        <v>2680600</v>
+        <v>2261000</v>
       </c>
       <c r="G17" s="3">
-        <v>2545700</v>
+        <v>2590900</v>
       </c>
       <c r="H17" s="3">
-        <v>2448400</v>
+        <v>2460500</v>
       </c>
       <c r="I17" s="3">
-        <v>2224800</v>
+        <v>2366500</v>
       </c>
       <c r="J17" s="3">
+        <v>2150300</v>
+      </c>
+      <c r="K17" s="3">
         <v>2495800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6382300</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>127900</v>
+        <v>164700</v>
       </c>
       <c r="E18" s="3">
-        <v>50100</v>
+        <v>123600</v>
       </c>
       <c r="F18" s="3">
-        <v>227800</v>
+        <v>48400</v>
       </c>
       <c r="G18" s="3">
-        <v>159800</v>
+        <v>220100</v>
       </c>
       <c r="H18" s="3">
-        <v>211000</v>
+        <v>154400</v>
       </c>
       <c r="I18" s="3">
-        <v>157700</v>
+        <v>203900</v>
       </c>
       <c r="J18" s="3">
+        <v>152400</v>
+      </c>
+      <c r="K18" s="3">
         <v>237100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>865600</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1072,78 +1104,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10900</v>
+        <v>7600</v>
       </c>
       <c r="E20" s="3">
-        <v>7900</v>
+        <v>10500</v>
       </c>
       <c r="F20" s="3">
-        <v>-16500</v>
+        <v>7600</v>
       </c>
       <c r="G20" s="3">
-        <v>9400</v>
+        <v>-15900</v>
       </c>
       <c r="H20" s="3">
-        <v>28200</v>
+        <v>9100</v>
       </c>
       <c r="I20" s="3">
-        <v>18600</v>
+        <v>27300</v>
       </c>
       <c r="J20" s="3">
+        <v>17900</v>
+      </c>
+      <c r="K20" s="3">
         <v>13600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6600</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>293100</v>
+        <v>321200</v>
       </c>
       <c r="E21" s="3">
-        <v>209900</v>
+        <v>283300</v>
       </c>
       <c r="F21" s="3">
-        <v>368400</v>
+        <v>202800</v>
       </c>
       <c r="G21" s="3">
-        <v>326100</v>
+        <v>356000</v>
       </c>
       <c r="H21" s="3">
-        <v>393200</v>
+        <v>315200</v>
       </c>
       <c r="I21" s="3">
-        <v>324600</v>
+        <v>380100</v>
       </c>
       <c r="J21" s="3">
+        <v>313800</v>
+      </c>
+      <c r="K21" s="3">
         <v>399600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1171,84 +1210,93 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>138800</v>
+        <v>172300</v>
       </c>
       <c r="E23" s="3">
-        <v>58000</v>
+        <v>134100</v>
       </c>
       <c r="F23" s="3">
-        <v>211300</v>
+        <v>56000</v>
       </c>
       <c r="G23" s="3">
-        <v>169200</v>
+        <v>204200</v>
       </c>
       <c r="H23" s="3">
-        <v>239200</v>
+        <v>163500</v>
       </c>
       <c r="I23" s="3">
-        <v>176200</v>
+        <v>231200</v>
       </c>
       <c r="J23" s="3">
+        <v>170300</v>
+      </c>
+      <c r="K23" s="3">
         <v>250700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>859100</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>53900</v>
+        <v>60600</v>
       </c>
       <c r="E24" s="3">
-        <v>21100</v>
+        <v>52100</v>
       </c>
       <c r="F24" s="3">
-        <v>17000</v>
+        <v>20400</v>
       </c>
       <c r="G24" s="3">
-        <v>33700</v>
+        <v>16500</v>
       </c>
       <c r="H24" s="3">
-        <v>95000</v>
+        <v>32600</v>
       </c>
       <c r="I24" s="3">
-        <v>47300</v>
+        <v>91800</v>
       </c>
       <c r="J24" s="3">
+        <v>45700</v>
+      </c>
+      <c r="K24" s="3">
         <v>58000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>229200</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1282,78 +1330,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>84900</v>
+        <v>111700</v>
       </c>
       <c r="E26" s="3">
-        <v>36900</v>
+        <v>82100</v>
       </c>
       <c r="F26" s="3">
-        <v>194200</v>
+        <v>35700</v>
       </c>
       <c r="G26" s="3">
-        <v>135400</v>
+        <v>187700</v>
       </c>
       <c r="H26" s="3">
-        <v>144200</v>
+        <v>130900</v>
       </c>
       <c r="I26" s="3">
-        <v>128900</v>
+        <v>139400</v>
       </c>
       <c r="J26" s="3">
+        <v>124600</v>
+      </c>
+      <c r="K26" s="3">
         <v>192700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>629800</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>81100</v>
+        <v>105700</v>
       </c>
       <c r="E27" s="3">
-        <v>33100</v>
+        <v>78400</v>
       </c>
       <c r="F27" s="3">
-        <v>190400</v>
+        <v>32000</v>
       </c>
       <c r="G27" s="3">
-        <v>133500</v>
+        <v>184000</v>
       </c>
       <c r="H27" s="3">
-        <v>141800</v>
+        <v>129000</v>
       </c>
       <c r="I27" s="3">
-        <v>125300</v>
+        <v>137100</v>
       </c>
       <c r="J27" s="3">
+        <v>121100</v>
+      </c>
+      <c r="K27" s="3">
         <v>189400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>619600</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1387,8 +1444,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1416,14 +1476,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1457,8 +1520,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1492,78 +1558,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10900</v>
+        <v>-7600</v>
       </c>
       <c r="E32" s="3">
-        <v>-7900</v>
+        <v>-10500</v>
       </c>
       <c r="F32" s="3">
-        <v>16500</v>
+        <v>-7600</v>
       </c>
       <c r="G32" s="3">
-        <v>-9400</v>
+        <v>15900</v>
       </c>
       <c r="H32" s="3">
-        <v>-28200</v>
+        <v>-9100</v>
       </c>
       <c r="I32" s="3">
-        <v>-18600</v>
+        <v>-27300</v>
       </c>
       <c r="J32" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-13600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6600</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>81100</v>
+        <v>105700</v>
       </c>
       <c r="E33" s="3">
-        <v>33100</v>
+        <v>78400</v>
       </c>
       <c r="F33" s="3">
-        <v>190400</v>
+        <v>32000</v>
       </c>
       <c r="G33" s="3">
-        <v>133500</v>
+        <v>184000</v>
       </c>
       <c r="H33" s="3">
-        <v>141800</v>
+        <v>129000</v>
       </c>
       <c r="I33" s="3">
-        <v>125300</v>
+        <v>137100</v>
       </c>
       <c r="J33" s="3">
+        <v>121100</v>
+      </c>
+      <c r="K33" s="3">
         <v>189400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>619600</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1597,83 +1672,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>81100</v>
+        <v>105700</v>
       </c>
       <c r="E35" s="3">
-        <v>33100</v>
+        <v>78400</v>
       </c>
       <c r="F35" s="3">
-        <v>190400</v>
+        <v>32000</v>
       </c>
       <c r="G35" s="3">
-        <v>133500</v>
+        <v>184000</v>
       </c>
       <c r="H35" s="3">
-        <v>141800</v>
+        <v>129000</v>
       </c>
       <c r="I35" s="3">
-        <v>125300</v>
+        <v>137100</v>
       </c>
       <c r="J35" s="3">
+        <v>121100</v>
+      </c>
+      <c r="K35" s="3">
         <v>189400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>619600</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1687,8 +1771,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1702,323 +1787,351 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1811300</v>
+        <v>1848300</v>
       </c>
       <c r="E41" s="3">
-        <v>1406700</v>
+        <v>1750700</v>
       </c>
       <c r="F41" s="3">
-        <v>1726100</v>
+        <v>1359600</v>
       </c>
       <c r="G41" s="3">
-        <v>1531900</v>
+        <v>1668300</v>
       </c>
       <c r="H41" s="3">
-        <v>1776100</v>
+        <v>1480600</v>
       </c>
       <c r="I41" s="3">
-        <v>1806300</v>
+        <v>1716600</v>
       </c>
       <c r="J41" s="3">
+        <v>1745800</v>
+      </c>
+      <c r="K41" s="3">
         <v>2308800</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>117900</v>
+        <v>68700</v>
       </c>
       <c r="E42" s="3">
-        <v>103800</v>
+        <v>114000</v>
       </c>
       <c r="F42" s="3">
-        <v>141600</v>
+        <v>100400</v>
       </c>
       <c r="G42" s="3">
-        <v>157000</v>
+        <v>136800</v>
       </c>
       <c r="H42" s="3">
-        <v>205100</v>
+        <v>151800</v>
       </c>
       <c r="I42" s="3">
-        <v>175300</v>
+        <v>198300</v>
       </c>
       <c r="J42" s="3">
+        <v>169500</v>
+      </c>
+      <c r="K42" s="3">
         <v>41900</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1531900</v>
+        <v>1559600</v>
       </c>
       <c r="E43" s="3">
-        <v>1484800</v>
+        <v>1480600</v>
       </c>
       <c r="F43" s="3">
-        <v>1612900</v>
+        <v>1435100</v>
       </c>
       <c r="G43" s="3">
-        <v>1567700</v>
+        <v>1558900</v>
       </c>
       <c r="H43" s="3">
-        <v>1595600</v>
+        <v>1515200</v>
       </c>
       <c r="I43" s="3">
-        <v>1470600</v>
+        <v>1542200</v>
       </c>
       <c r="J43" s="3">
+        <v>1421400</v>
+      </c>
+      <c r="K43" s="3">
         <v>1502600</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1977300</v>
+        <v>1883000</v>
       </c>
       <c r="E44" s="3">
-        <v>1986700</v>
+        <v>1911100</v>
       </c>
       <c r="F44" s="3">
-        <v>1912500</v>
+        <v>1920200</v>
       </c>
       <c r="G44" s="3">
-        <v>2062500</v>
+        <v>1848500</v>
       </c>
       <c r="H44" s="3">
-        <v>1952000</v>
+        <v>1993400</v>
       </c>
       <c r="I44" s="3">
-        <v>1772500</v>
+        <v>1886700</v>
       </c>
       <c r="J44" s="3">
+        <v>1713200</v>
+      </c>
+      <c r="K44" s="3">
         <v>1566800</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>157600</v>
+        <v>159200</v>
       </c>
       <c r="E45" s="3">
-        <v>192200</v>
+        <v>152400</v>
       </c>
       <c r="F45" s="3">
-        <v>152500</v>
+        <v>185800</v>
       </c>
       <c r="G45" s="3">
-        <v>159400</v>
+        <v>147400</v>
       </c>
       <c r="H45" s="3">
-        <v>151500</v>
+        <v>154000</v>
       </c>
       <c r="I45" s="3">
-        <v>153600</v>
+        <v>146400</v>
       </c>
       <c r="J45" s="3">
+        <v>148500</v>
+      </c>
+      <c r="K45" s="3">
         <v>143200</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5596100</v>
+        <v>5518800</v>
       </c>
       <c r="E46" s="3">
-        <v>5174300</v>
+        <v>5408700</v>
       </c>
       <c r="F46" s="3">
-        <v>5545500</v>
+        <v>5001100</v>
       </c>
       <c r="G46" s="3">
-        <v>5478400</v>
+        <v>5359800</v>
       </c>
       <c r="H46" s="3">
-        <v>5680300</v>
+        <v>5295000</v>
       </c>
       <c r="I46" s="3">
-        <v>5378400</v>
+        <v>5490100</v>
       </c>
       <c r="J46" s="3">
+        <v>5198300</v>
+      </c>
+      <c r="K46" s="3">
         <v>5563300</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>255700</v>
+        <v>257100</v>
       </c>
       <c r="E47" s="3">
-        <v>240500</v>
+        <v>247100</v>
       </c>
       <c r="F47" s="3">
-        <v>250000</v>
+        <v>232400</v>
       </c>
       <c r="G47" s="3">
-        <v>247300</v>
+        <v>241600</v>
       </c>
       <c r="H47" s="3">
-        <v>227700</v>
+        <v>239100</v>
       </c>
       <c r="I47" s="3">
-        <v>226900</v>
+        <v>220100</v>
       </c>
       <c r="J47" s="3">
+        <v>219300</v>
+      </c>
+      <c r="K47" s="3">
         <v>231100</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3941600</v>
+        <v>3726800</v>
       </c>
       <c r="E48" s="3">
-        <v>3925300</v>
+        <v>3809600</v>
       </c>
       <c r="F48" s="3">
-        <v>3970500</v>
+        <v>3793900</v>
       </c>
       <c r="G48" s="3">
-        <v>4050200</v>
+        <v>3837600</v>
       </c>
       <c r="H48" s="3">
-        <v>4088200</v>
+        <v>3914600</v>
       </c>
       <c r="I48" s="3">
-        <v>3943900</v>
+        <v>3951300</v>
       </c>
       <c r="J48" s="3">
+        <v>3811900</v>
+      </c>
+      <c r="K48" s="3">
         <v>3934200</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1798400</v>
+        <v>1758300</v>
       </c>
       <c r="E49" s="3">
-        <v>1737000</v>
+        <v>1738200</v>
       </c>
       <c r="F49" s="3">
-        <v>1731500</v>
+        <v>1678800</v>
       </c>
       <c r="G49" s="3">
-        <v>1775400</v>
+        <v>1673600</v>
       </c>
       <c r="H49" s="3">
-        <v>1739600</v>
+        <v>1716000</v>
       </c>
       <c r="I49" s="3">
-        <v>1674000</v>
+        <v>1681300</v>
       </c>
       <c r="J49" s="3">
+        <v>1618000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1622200</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2052,8 +2165,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2087,43 +2203,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>383500</v>
+        <v>363200</v>
       </c>
       <c r="E52" s="3">
-        <v>363900</v>
+        <v>370600</v>
       </c>
       <c r="F52" s="3">
-        <v>362500</v>
+        <v>351700</v>
       </c>
       <c r="G52" s="3">
-        <v>360600</v>
+        <v>350300</v>
       </c>
       <c r="H52" s="3">
-        <v>363500</v>
+        <v>348500</v>
       </c>
       <c r="I52" s="3">
-        <v>353700</v>
+        <v>351300</v>
       </c>
       <c r="J52" s="3">
+        <v>341800</v>
+      </c>
+      <c r="K52" s="3">
         <v>355700</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2157,43 +2279,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11975300</v>
+        <v>11624100</v>
       </c>
       <c r="E54" s="3">
-        <v>11441000</v>
+        <v>11574400</v>
       </c>
       <c r="F54" s="3">
-        <v>11860000</v>
+        <v>11058000</v>
       </c>
       <c r="G54" s="3">
-        <v>11912000</v>
+        <v>11463000</v>
       </c>
       <c r="H54" s="3">
-        <v>12099300</v>
+        <v>11513200</v>
       </c>
       <c r="I54" s="3">
-        <v>11576900</v>
+        <v>11694200</v>
       </c>
       <c r="J54" s="3">
+        <v>11189300</v>
+      </c>
+      <c r="K54" s="3">
         <v>11706500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2207,8 +2335,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2222,218 +2351,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1617100</v>
+        <v>1510600</v>
       </c>
       <c r="E57" s="3">
-        <v>1614000</v>
+        <v>1563000</v>
       </c>
       <c r="F57" s="3">
-        <v>1674700</v>
+        <v>1560000</v>
       </c>
       <c r="G57" s="3">
-        <v>1651200</v>
+        <v>1618600</v>
       </c>
       <c r="H57" s="3">
-        <v>1637500</v>
+        <v>1596000</v>
       </c>
       <c r="I57" s="3">
-        <v>1550100</v>
+        <v>1582700</v>
       </c>
       <c r="J57" s="3">
+        <v>1498200</v>
+      </c>
+      <c r="K57" s="3">
         <v>1573800</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>204800</v>
+        <v>218800</v>
       </c>
       <c r="E58" s="3">
-        <v>305600</v>
+        <v>198000</v>
       </c>
       <c r="F58" s="3">
-        <v>584700</v>
+        <v>295400</v>
       </c>
       <c r="G58" s="3">
-        <v>615100</v>
+        <v>565100</v>
       </c>
       <c r="H58" s="3">
-        <v>631800</v>
+        <v>594500</v>
       </c>
       <c r="I58" s="3">
-        <v>455000</v>
+        <v>610600</v>
       </c>
       <c r="J58" s="3">
+        <v>439800</v>
+      </c>
+      <c r="K58" s="3">
         <v>179200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1002800</v>
+        <v>1102400</v>
       </c>
       <c r="E59" s="3">
-        <v>906900</v>
+        <v>969200</v>
       </c>
       <c r="F59" s="3">
-        <v>1083700</v>
+        <v>876600</v>
       </c>
       <c r="G59" s="3">
-        <v>1154500</v>
+        <v>1047400</v>
       </c>
       <c r="H59" s="3">
-        <v>1085300</v>
+        <v>1115800</v>
       </c>
       <c r="I59" s="3">
-        <v>962800</v>
+        <v>1048900</v>
       </c>
       <c r="J59" s="3">
+        <v>930600</v>
+      </c>
+      <c r="K59" s="3">
         <v>1145400</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2824800</v>
+        <v>2831800</v>
       </c>
       <c r="E60" s="3">
-        <v>2826600</v>
+        <v>2730200</v>
       </c>
       <c r="F60" s="3">
-        <v>3343100</v>
+        <v>2731900</v>
       </c>
       <c r="G60" s="3">
-        <v>3420800</v>
+        <v>3231200</v>
       </c>
       <c r="H60" s="3">
-        <v>3354600</v>
+        <v>3306300</v>
       </c>
       <c r="I60" s="3">
-        <v>2967900</v>
+        <v>3242300</v>
       </c>
       <c r="J60" s="3">
+        <v>2868500</v>
+      </c>
+      <c r="K60" s="3">
         <v>2898400</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1619700</v>
+        <v>1559500</v>
       </c>
       <c r="E61" s="3">
-        <v>1447900</v>
+        <v>1565500</v>
       </c>
       <c r="F61" s="3">
-        <v>1221300</v>
+        <v>1399400</v>
       </c>
       <c r="G61" s="3">
-        <v>1167800</v>
+        <v>1180500</v>
       </c>
       <c r="H61" s="3">
-        <v>1210100</v>
+        <v>1128700</v>
       </c>
       <c r="I61" s="3">
-        <v>1370300</v>
+        <v>1169500</v>
       </c>
       <c r="J61" s="3">
+        <v>1324400</v>
+      </c>
+      <c r="K61" s="3">
         <v>1666600</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>455500</v>
+        <v>436200</v>
       </c>
       <c r="E62" s="3">
-        <v>450500</v>
+        <v>440200</v>
       </c>
       <c r="F62" s="3">
-        <v>457300</v>
+        <v>435400</v>
       </c>
       <c r="G62" s="3">
-        <v>390700</v>
+        <v>442000</v>
       </c>
       <c r="H62" s="3">
-        <v>391600</v>
+        <v>377600</v>
       </c>
       <c r="I62" s="3">
-        <v>382800</v>
+        <v>378500</v>
       </c>
       <c r="J62" s="3">
+        <v>369900</v>
+      </c>
+      <c r="K62" s="3">
         <v>382200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2467,8 +2615,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2502,8 +2653,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2537,43 +2691,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5093200</v>
+        <v>5021300</v>
       </c>
       <c r="E66" s="3">
-        <v>4904100</v>
+        <v>4922600</v>
       </c>
       <c r="F66" s="3">
-        <v>5182000</v>
+        <v>4739900</v>
       </c>
       <c r="G66" s="3">
-        <v>5148300</v>
+        <v>5008500</v>
       </c>
       <c r="H66" s="3">
-        <v>5120600</v>
+        <v>4975900</v>
       </c>
       <c r="I66" s="3">
-        <v>4860200</v>
+        <v>4949200</v>
       </c>
       <c r="J66" s="3">
+        <v>4697400</v>
+      </c>
+      <c r="K66" s="3">
         <v>5076000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2587,8 +2747,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2622,8 +2783,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2657,8 +2821,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2686,14 +2853,17 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3" t="s">
-        <v>3</v>
+      <c r="L70" s="3">
+        <v>0</v>
       </c>
       <c r="M70" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2727,43 +2897,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4964600</v>
+        <v>4672500</v>
       </c>
       <c r="E72" s="3">
-        <v>4883600</v>
+        <v>4798300</v>
       </c>
       <c r="F72" s="3">
-        <v>5086800</v>
+        <v>4720100</v>
       </c>
       <c r="G72" s="3">
-        <v>4956900</v>
+        <v>4916500</v>
       </c>
       <c r="H72" s="3">
-        <v>5406400</v>
+        <v>4790900</v>
       </c>
       <c r="I72" s="3">
-        <v>5263700</v>
+        <v>5225400</v>
       </c>
       <c r="J72" s="3">
+        <v>5087500</v>
+      </c>
+      <c r="K72" s="3">
         <v>5371900</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2797,8 +2973,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2832,8 +3011,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2867,43 +3049,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6882100</v>
+        <v>6602900</v>
       </c>
       <c r="E76" s="3">
-        <v>6536900</v>
+        <v>6651700</v>
       </c>
       <c r="F76" s="3">
-        <v>6678100</v>
+        <v>6318100</v>
       </c>
       <c r="G76" s="3">
-        <v>6763700</v>
+        <v>6454500</v>
       </c>
       <c r="H76" s="3">
-        <v>6978700</v>
+        <v>6537300</v>
       </c>
       <c r="I76" s="3">
-        <v>6716700</v>
+        <v>6745100</v>
       </c>
       <c r="J76" s="3">
+        <v>6491900</v>
+      </c>
+      <c r="K76" s="3">
         <v>6630500</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2937,83 +3125,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>81100</v>
+        <v>105700</v>
       </c>
       <c r="E81" s="3">
-        <v>33100</v>
+        <v>78400</v>
       </c>
       <c r="F81" s="3">
-        <v>190400</v>
+        <v>32000</v>
       </c>
       <c r="G81" s="3">
-        <v>133500</v>
+        <v>184000</v>
       </c>
       <c r="H81" s="3">
-        <v>141800</v>
+        <v>129000</v>
       </c>
       <c r="I81" s="3">
-        <v>125300</v>
+        <v>137100</v>
       </c>
       <c r="J81" s="3">
+        <v>121100</v>
+      </c>
+      <c r="K81" s="3">
         <v>189400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>619600</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3027,43 +3224,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>154400</v>
+        <v>148900</v>
       </c>
       <c r="E83" s="3">
-        <v>151900</v>
+        <v>149200</v>
       </c>
       <c r="F83" s="3">
-        <v>157100</v>
+        <v>146800</v>
       </c>
       <c r="G83" s="3">
-        <v>157000</v>
+        <v>151800</v>
       </c>
       <c r="H83" s="3">
-        <v>154000</v>
+        <v>151700</v>
       </c>
       <c r="I83" s="3">
-        <v>148400</v>
+        <v>148900</v>
       </c>
       <c r="J83" s="3">
+        <v>143400</v>
+      </c>
+      <c r="K83" s="3">
         <v>148900</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3097,8 +3298,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3132,8 +3336,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3167,8 +3374,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3202,8 +3412,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3237,43 +3450,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>448000</v>
+        <v>384200</v>
       </c>
       <c r="E89" s="3">
-        <v>-19200</v>
+        <v>433000</v>
       </c>
       <c r="F89" s="3">
-        <v>396700</v>
+        <v>-18600</v>
       </c>
       <c r="G89" s="3">
-        <v>312000</v>
+        <v>383500</v>
       </c>
       <c r="H89" s="3">
-        <v>260100</v>
+        <v>301500</v>
       </c>
       <c r="I89" s="3">
-        <v>-69500</v>
+        <v>251400</v>
       </c>
       <c r="J89" s="3">
+        <v>-67200</v>
+      </c>
+      <c r="K89" s="3">
         <v>372600</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3287,43 +3506,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17251000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-17264000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-15515000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-17919000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-17605000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-25593000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-16084000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-17987000</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3357,8 +3580,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3392,43 +3618,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-125900</v>
+        <v>-113700</v>
       </c>
       <c r="E94" s="3">
-        <v>-103800</v>
+        <v>-121700</v>
       </c>
       <c r="F94" s="3">
-        <v>-111200</v>
+        <v>-100400</v>
       </c>
       <c r="G94" s="3">
-        <v>-128300</v>
+        <v>-107500</v>
       </c>
       <c r="H94" s="3">
-        <v>-167400</v>
+        <v>-124000</v>
       </c>
       <c r="I94" s="3">
-        <v>-107700</v>
+        <v>-161800</v>
       </c>
       <c r="J94" s="3">
+        <v>-104100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-116900</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3442,43 +3674,47 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-226400</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-223600</v>
+      </c>
+      <c r="G96" s="3">
         <v>-5200</v>
       </c>
-      <c r="E96" s="3">
-        <v>-231400</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-5400</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-233600</v>
-      </c>
       <c r="H96" s="3">
-        <v>-4800</v>
+        <v>-225800</v>
       </c>
       <c r="I96" s="3">
-        <v>-229800</v>
+        <v>-4700</v>
       </c>
       <c r="J96" s="3">
+        <v>-222100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-4900</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3512,8 +3748,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3547,8 +3786,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3582,109 +3824,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>17800</v>
+        <v>-242200</v>
       </c>
       <c r="E100" s="3">
-        <v>-253900</v>
+        <v>17200</v>
       </c>
       <c r="F100" s="3">
-        <v>-17600</v>
+        <v>-245400</v>
       </c>
       <c r="G100" s="3">
-        <v>-477600</v>
+        <v>-17000</v>
       </c>
       <c r="H100" s="3">
-        <v>-194400</v>
+        <v>-461600</v>
       </c>
       <c r="I100" s="3">
-        <v>-267500</v>
+        <v>-187900</v>
       </c>
       <c r="J100" s="3">
+        <v>-258600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-40400</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>64800</v>
+        <v>22900</v>
       </c>
       <c r="E101" s="3">
-        <v>23300</v>
+        <v>62600</v>
       </c>
       <c r="F101" s="3">
-        <v>-73800</v>
+        <v>22500</v>
       </c>
       <c r="G101" s="3">
-        <v>15300</v>
+        <v>-71300</v>
       </c>
       <c r="H101" s="3">
-        <v>92100</v>
+        <v>14800</v>
       </c>
       <c r="I101" s="3">
-        <v>72800</v>
+        <v>89000</v>
       </c>
       <c r="J101" s="3">
+        <v>70400</v>
+      </c>
+      <c r="K101" s="3">
         <v>39600</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>404600</v>
+        <v>51100</v>
       </c>
       <c r="E102" s="3">
-        <v>-353700</v>
+        <v>391100</v>
       </c>
       <c r="F102" s="3">
-        <v>194200</v>
+        <v>-341800</v>
       </c>
       <c r="G102" s="3">
-        <v>-278600</v>
+        <v>187700</v>
       </c>
       <c r="H102" s="3">
-        <v>-9600</v>
+        <v>-269200</v>
       </c>
       <c r="I102" s="3">
-        <v>-371900</v>
+        <v>-9300</v>
       </c>
       <c r="J102" s="3">
+        <v>-359500</v>
+      </c>
+      <c r="K102" s="3">
         <v>254900</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
